--- a/src/pnl_cache/pnl_log.xlsx
+++ b/src/pnl_cache/pnl_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E527"/>
+  <dimension ref="A1:E545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11501,6 +11501,384 @@
         <v>5</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:50:35.723525</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.27, "EURUSDc": 5.54, "AUDJPYc": 0.01, "EURNZDc": -0.65, "USDCHFc": -3.25}</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:50:35.957451</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.13, "GBPJPYc": 7.17, "EURCADc": -0.88, "AUDCHFc": 6.26, "EURUSDc": 5.65}</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:50:45.746995</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.38, "EURUSDc": 5.62, "AUDJPYc": 0.08, "EURNZDc": -0.71, "USDCHFc": -3.15}</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:50:45.983776</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.18, "GBPJPYc": 7.2, "EURCADc": -0.88, "AUDCHFc": 6.26, "EURUSDc": 5.72}</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:50:55.768402</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.35, "EURUSDc": 5.54, "AUDJPYc": 0.08, "EURNZDc": -0.68, "USDCHFc": -3.2}</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:50:55.999026</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.13, "GBPJPYc": 7.21, "EURCADc": -0.91, "AUDCHFc": 6.27, "EURUSDc": 5.65}</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:05.786272</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.34, "EURUSDc": 5.63, "AUDJPYc": 0.11, "EURNZDc": -0.67, "USDCHFc": -3.07}</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:06.022030</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.16, "GBPJPYc": 7.23, "EURCADc": -0.9, "AUDCHFc": 6.34, "EURUSDc": 5.74}</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:15.808534</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.04, "EURUSDc": 5.17, "AUDJPYc": 0.07, "EURNZDc": -0.76, "USDCHFc": -3.44}</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:16.045209</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.99, "GBPJPYc": 7.21, "EURCADc": -1.25, "AUDCHFc": 6.27, "EURUSDc": 5.33}</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:25.821633</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.04, "EURUSDc": 5.22, "AUDJPYc": 0.03, "EURNZDc": -0.72, "USDCHFc": -3.36}</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:26.055998</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.01, "GBPJPYc": 7.15, "EURCADc": -1.23, "AUDCHFc": 6.28, "EURUSDc": 5.31}</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:35.835085</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.04, "EURUSDc": 5.22, "AUDJPYc": -0.03, "EURNZDc": -0.76, "USDCHFc": -3.41}</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:36.068515</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>18.49</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.99, "GBPJPYc": 7.13, "EURCADc": -1.2, "AUDCHFc": 6.26, "EURUSDc": 5.33}</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:45.849547</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 12.02, "EURUSDc": 5.16, "AUDJPYc": -0.15, "EURNZDc": -0.84, "USDCHFc": -3.47}</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:46.089836</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.03, "GBPJPYc": 6.86, "EURCADc": -1.31, "AUDCHFc": 6.18, "EURUSDc": 5.27}</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:55.862180</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 11.89, "EURUSDc": 5.11, "AUDJPYc": -0.16, "EURNZDc": -0.9, "USDCHFc": -3.49}</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>2025-07-25T20:51:56.110050</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 1.02, "GBPJPYc": 7.07, "EURCADc": -1.36, "AUDCHFc": 6.13, "EURUSDc": 5.22}</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/pnl_cache/pnl_log.xlsx
+++ b/src/pnl_cache/pnl_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1771"/>
+  <dimension ref="A1:E2053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37625,6 +37625,5928 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:19.109696</t>
+        </is>
+      </c>
+      <c r="C1772" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:19.325898</t>
+        </is>
+      </c>
+      <c r="C1773" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:24.122392</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1774" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:24.341470</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1775" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:29.139095</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1776" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:29.352886</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1777" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:34.166552</t>
+        </is>
+      </c>
+      <c r="C1778" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1778" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:34.369181</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:39.186027</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1780" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:39.386385</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1781" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:44.201433</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1782" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:44.403826</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1783" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:50.935413</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1784" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:50.963468</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1785" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:55.963195</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:30:55.987679</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:00.992459</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:01.007764</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:06.020323</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:06.033864</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:15.376920</t>
+        </is>
+      </c>
+      <c r="C1792" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:15.422003</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:20.389575</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1794" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:31:20.435538</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1795" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:43.947769</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1796" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:43.950771</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1797" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:48.964967</t>
+        </is>
+      </c>
+      <c r="C1798" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1798" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:48.992305</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1799" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:53.988582</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1800" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:54.015419</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1801" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:59.021531</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1802" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:40:59.036936</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1803" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:04.040951</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1804" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:04.057057</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1805" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:09.066712</t>
+        </is>
+      </c>
+      <c r="C1806" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1806" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:09.066712</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1807" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:14.096725</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1808" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:14.109338</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1809" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:19.126830</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1810" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:19.126830</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1811" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:24.151007</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1812" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:24.151007</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1813" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:29.171164</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1814" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:29.187137</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1815" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:34.196562</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1816" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:34.212044</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1817" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:39.216597</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1818" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:39.231519</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1819" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:44.243983</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1820" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:44.243983</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1821" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:49.262783</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1822" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:49.277670</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1823" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:54.275933</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1824" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:54.291709</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1825" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:59.299012</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1826" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:41:59.314613</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1827" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:14.243361</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1828" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:14.253971</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1829" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:19.290357</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1830" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:19.302046</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1831" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:24.308796</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1832" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:24.335416</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1833" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:29.341585</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1834" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:29.367370</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1835" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:34.375623</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1836" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:34.389906</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1837" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:39.407599</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1838" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:39.407599</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1839" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:44.443333</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1840" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:44.468688</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1841" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:49.473663</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1842" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:49.498977</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1843" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:54.501118</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1844" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:54.515583</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:59.521785</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:42:59.537156</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:04.536713</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:04.551146</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:09.571202</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:09.571202</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:14.594304</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:14.620901</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:19.623407</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:19.638691</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:24.646602</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:24.646602</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:29.661148</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:29.677429</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:34.688597</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1860" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:34.714935</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1861" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:39.719087</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1862" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:39.733239</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1863" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:44.736264</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1864" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:44.752309</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1865" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:49.763083</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1866" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:49.763083</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1867" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:54.795980</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1868" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:54.808343</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:59.809360</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:43:59.825150</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:04.821446</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:04.837825</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:09.845150</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:09.845150</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:14.866500</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:14.866500</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:19.884140</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:19.899469</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:24.906533</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:24.906533</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:29.920248</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:29.935063</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:34.940851</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:34.955883</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:39.952842</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:39.967849</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:44.971101</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:44.985924</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:49.991201</t>
+        </is>
+      </c>
+      <c r="C1890" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:50.005899</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:55.015052</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:44:55.015052</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:00.037476</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:00.037476</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:05.051799</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:05.066628</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:10.077899</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:10.077899</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:15.103926</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:15.103926</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:20.121966</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:20.121966</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:25.147768</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:25.147768</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:30.164053</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:30.178739</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:35.178269</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:35.194034</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:40.202584</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:40.202584</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:45.231446</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:45.231446</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:50.269951</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:50.295520</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:55.295666</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:45:55.311399</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1917" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:00.309676</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1918" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:00.324778</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1919" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:05.327653</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1920" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:05.344296</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1921" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:10.352716</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1922" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:10.352716</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1923" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:15.371648</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1924" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:15.386545</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1925" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:20.388841</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1926" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:20.403866</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1927" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:25.415966</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1928" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:25.415966</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1929" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:30.437095</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1930" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:30.437095</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1931" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:35.457331</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1932" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:35.472459</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1933" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:40.464508</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1934" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:40.481644</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1935" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:45.479617</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1936" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:45.494674</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1937" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:50.489027</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1938" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:50.505045</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1939" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:55.498079</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1940" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:46:55.513715</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1941" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:00.518846</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1942" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:00.545193</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1943" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:05.546583</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1944" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:05.560970</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1945" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:10.562429</t>
+        </is>
+      </c>
+      <c r="C1946" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1946" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:10.588874</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1947" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:15.577338</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1948" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:15.608339</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1949" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:20.605522</t>
+        </is>
+      </c>
+      <c r="C1950" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1950" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:20.618027</t>
+        </is>
+      </c>
+      <c r="C1951" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1951" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:25.616352</t>
+        </is>
+      </c>
+      <c r="C1952" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1952" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:47:25.632460</t>
+        </is>
+      </c>
+      <c r="C1953" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1953" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:33.305353</t>
+        </is>
+      </c>
+      <c r="C1954" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1954" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:33.314437</t>
+        </is>
+      </c>
+      <c r="C1955" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1955" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:38.332231</t>
+        </is>
+      </c>
+      <c r="C1956" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1956" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:38.358154</t>
+        </is>
+      </c>
+      <c r="C1957" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1957" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:43.356289</t>
+        </is>
+      </c>
+      <c r="C1958" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1958" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:43.372298</t>
+        </is>
+      </c>
+      <c r="C1959" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1959" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:48.372865</t>
+        </is>
+      </c>
+      <c r="C1960" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1960" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:48.399386</t>
+        </is>
+      </c>
+      <c r="C1961" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1961" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:53.405206</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:53.420883</t>
+        </is>
+      </c>
+      <c r="C1963" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:58.430784</t>
+        </is>
+      </c>
+      <c r="C1964" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:48:58.430784</t>
+        </is>
+      </c>
+      <c r="C1965" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:10.940373</t>
+        </is>
+      </c>
+      <c r="C1966" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:10.940373</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:15.950226</t>
+        </is>
+      </c>
+      <c r="C1968" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:15.982336</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:20.963898</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:20.995211</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:25.985869</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:26.002485</t>
+        </is>
+      </c>
+      <c r="C1973" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:31.004639</t>
+        </is>
+      </c>
+      <c r="C1974" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:31.019021</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:36.027607</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:36.027607</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:41.044681</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:41.060431</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:46.058827</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:46.074714</t>
+        </is>
+      </c>
+      <c r="C1981" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:51.077675</t>
+        </is>
+      </c>
+      <c r="C1982" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:51.093731</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:56.107756</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:51:56.136504</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:14.829700</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:14.839508</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:19.861501</t>
+        </is>
+      </c>
+      <c r="C1988" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:19.887632</t>
+        </is>
+      </c>
+      <c r="C1989" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:24.888222</t>
+        </is>
+      </c>
+      <c r="C1990" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:24.905129</t>
+        </is>
+      </c>
+      <c r="C1991" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:29.910362</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:29.922735</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:34.929968</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:34.956752</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:39.962824</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:39.978350</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:44.977395</t>
+        </is>
+      </c>
+      <c r="C1998" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:44.993485</t>
+        </is>
+      </c>
+      <c r="C1999" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:49.994716</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:50.009960</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:55.023240</t>
+        </is>
+      </c>
+      <c r="C2002" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:53:55.024247</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:57:45.977952</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:57:46.010352</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:57:50.992387</t>
+        </is>
+      </c>
+      <c r="C2006" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:57:51.022569</t>
+        </is>
+      </c>
+      <c r="C2007" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:57:56.012933</t>
+        </is>
+      </c>
+      <c r="C2008" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:57:56.043305</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:01.049130</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:01.073686</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:06.077446</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:06.092627</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:11.094346</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:11.110413</t>
+        </is>
+      </c>
+      <c r="C2015" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:16.113090</t>
+        </is>
+      </c>
+      <c r="C2016" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:16.128343</t>
+        </is>
+      </c>
+      <c r="C2017" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:21.123951</t>
+        </is>
+      </c>
+      <c r="C2018" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:21.151320</t>
+        </is>
+      </c>
+      <c r="C2019" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:26.158658</t>
+        </is>
+      </c>
+      <c r="C2020" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:26.185112</t>
+        </is>
+      </c>
+      <c r="C2021" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:31.180011</t>
+        </is>
+      </c>
+      <c r="C2022" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:31.195528</t>
+        </is>
+      </c>
+      <c r="C2023" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:36.188130</t>
+        </is>
+      </c>
+      <c r="C2024" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2024" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2024" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:36.202775</t>
+        </is>
+      </c>
+      <c r="C2025" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2025" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2025" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:41.210875</t>
+        </is>
+      </c>
+      <c r="C2026" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2026" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2026" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:41.210875</t>
+        </is>
+      </c>
+      <c r="C2027" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2027" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2027" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:46.238304</t>
+        </is>
+      </c>
+      <c r="C2028" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2028" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2028" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:46.251525</t>
+        </is>
+      </c>
+      <c r="C2029" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2029" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2029" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:51.263612</t>
+        </is>
+      </c>
+      <c r="C2030" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2030" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2030" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:51.263612</t>
+        </is>
+      </c>
+      <c r="C2031" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2031" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2031" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:56.295974</t>
+        </is>
+      </c>
+      <c r="C2032" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2032" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2032" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>2025-07-26T13:59:56.311118</t>
+        </is>
+      </c>
+      <c r="C2033" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2033" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2033" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:01.317120</t>
+        </is>
+      </c>
+      <c r="C2034" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2034" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2034" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:01.331966</t>
+        </is>
+      </c>
+      <c r="C2035" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2035" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2035" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:06.341164</t>
+        </is>
+      </c>
+      <c r="C2036" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2036" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2036" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:06.341164</t>
+        </is>
+      </c>
+      <c r="C2037" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2037" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2037" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:11.369677</t>
+        </is>
+      </c>
+      <c r="C2038" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2038" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2038" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:11.384760</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2039" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2039" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:16.396400</t>
+        </is>
+      </c>
+      <c r="C2040" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2040" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2040" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:16.409768</t>
+        </is>
+      </c>
+      <c r="C2041" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2041" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2041" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:21.418154</t>
+        </is>
+      </c>
+      <c r="C2042" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2042" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2042" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:21.430698</t>
+        </is>
+      </c>
+      <c r="C2043" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2043" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2043" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:26.442916</t>
+        </is>
+      </c>
+      <c r="C2044" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2044" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2044" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:26.442916</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2045" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2045" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:31.465990</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2046" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2046" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:31.481523</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2047" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2047" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:36.480825</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2048" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2048" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:36.495860</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2049" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2049" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:41.509834</t>
+        </is>
+      </c>
+      <c r="C2050" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2050" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2050" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:41.509834</t>
+        </is>
+      </c>
+      <c r="C2051" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2051" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2051" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:46.532306</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="D2052" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 10.98, "EURUSDc": 2.51, "AUDJPYc": 0.28, "EURNZDc": -1.85, "USDCHFc": -6.52}</t>
+        </is>
+      </c>
+      <c r="E2052" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>2025-07-26T14:00:46.547220</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D2053" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.15, "GBPJPYc": 6.98, "EURCADc": -3.91, "AUDCHFc": 4.94, "EURUSDc": 2.62}</t>
+        </is>
+      </c>
+      <c r="E2053" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/pnl_cache/pnl_log.xlsx
+++ b/src/pnl_cache/pnl_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2053"/>
+  <dimension ref="A1:E2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="91" customWidth="1" min="4" max="4"/>
+    <col width="102" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -43547,6 +43547,1161 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2054">
+      <c r="A2054" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:00.816137</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D2054" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86042, "EURUSDc": 1.1685, "AUDJPYc": 96.646, "EURNZDc": 1.96117, "USDCHFc": 0.80653}</t>
+        </is>
+      </c>
+      <c r="E2054" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:00.836774</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="D2055" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59596, "GBPJPYc": 199.88, "EURCADc": 1.60973, "AUDCHFc": 0.52658, "EURUSDc": 1.1685}</t>
+        </is>
+      </c>
+      <c r="E2055" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:01.834180</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86042, "EURUSDc": 1.1684, "AUDJPYc": 96.649, "EURNZDc": 1.96116, "USDCHFc": 0.80657}</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:01.856826</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.5959, "GBPJPYc": 199.898, "EURCADc": 1.60963, "AUDCHFc": 0.52658, "EURUSDc": 1.1684}</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:02.853618</t>
+        </is>
+      </c>
+      <c r="C2058" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86041, "EURUSDc": 1.16839, "AUDJPYc": 96.651, "EURNZDc": 1.96118, "USDCHFc": 0.80658}</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:02.869650</t>
+        </is>
+      </c>
+      <c r="C2059" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59591, "GBPJPYc": 199.902, "EURCADc": 1.60963, "AUDCHFc": 0.52657, "EURUSDc": 1.16839}</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:03.866576</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86041, "EURUSDc": 1.16839, "AUDJPYc": 96.651, "EURNZDc": 1.96118, "USDCHFc": 0.80658}</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:03.881491</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>37.97</v>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59591, "GBPJPYc": 199.902, "EURCADc": 1.60963, "AUDCHFc": 0.52657, "EURUSDc": 1.16839}</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:04.891920</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59592, "GBPJPYc": 199.894, "EURCADc": 1.60963, "AUDCHFc": 0.52658, "EURUSDc": 1.1684}</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2025-08-13T11:07:04.906634</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.8604, "EURUSDc": 1.1684, "AUDJPYc": 96.652, "EURNZDc": 1.96118, "USDCHFc": 0.80658}</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:43.159899</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86039, "EURUSDc": 1.16841, "AUDJPYc": 96.65, "EURNZDc": 1.96117, "USDCHFc": 0.80659}</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:43.427432</t>
+        </is>
+      </c>
+      <c r="C2065" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59843, "GBPJPYc": 199.695, "EURCADc": 1.61056, "AUDCHFc": 0.52712, "EURUSDc": 1.17078}</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:44.179811</t>
+        </is>
+      </c>
+      <c r="C2066" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86254, "EURUSDc": 1.17078, "AUDJPYc": 96.638, "EURNZDc": 1.95689, "USDCHFc": 0.80455}</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:44.442647</t>
+        </is>
+      </c>
+      <c r="C2067" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59843, "GBPJPYc": 199.695, "EURCADc": 1.61055, "AUDCHFc": 0.52712, "EURUSDc": 1.17078}</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:45.189132</t>
+        </is>
+      </c>
+      <c r="C2068" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86254, "EURUSDc": 1.17078, "AUDJPYc": 96.639, "EURNZDc": 1.95689, "USDCHFc": 0.80455}</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:45.450449</t>
+        </is>
+      </c>
+      <c r="C2069" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59843, "GBPJPYc": 199.685, "EURCADc": 1.61055, "AUDCHFc": 0.52714, "EURUSDc": 1.17081}</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:46.211081</t>
+        </is>
+      </c>
+      <c r="C2070" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86253, "EURUSDc": 1.17081, "AUDJPYc": 96.639, "EURNZDc": 1.95686, "USDCHFc": 0.80454}</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:46.457832</t>
+        </is>
+      </c>
+      <c r="C2071" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59845, "GBPJPYc": 199.681, "EURCADc": 1.61055, "AUDCHFc": 0.52713, "EURUSDc": 1.17081}</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:47.237850</t>
+        </is>
+      </c>
+      <c r="C2072" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86251, "EURUSDc": 1.17081, "AUDJPYc": 96.637, "EURNZDc": 1.95684, "USDCHFc": 0.80454}</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:47.470170</t>
+        </is>
+      </c>
+      <c r="C2073" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59845, "GBPJPYc": 199.681, "EURCADc": 1.61056, "AUDCHFc": 0.52713, "EURUSDc": 1.17081}</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:48.248292</t>
+        </is>
+      </c>
+      <c r="C2074" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86251, "EURUSDc": 1.17079, "AUDJPYc": 96.637, "EURNZDc": 1.95685, "USDCHFc": 0.80454}</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:48.479073</t>
+        </is>
+      </c>
+      <c r="C2075" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59845, "GBPJPYc": 199.688, "EURCADc": 1.61055, "AUDCHFc": 0.52713, "EURUSDc": 1.17079}</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:29:49.274161</t>
+        </is>
+      </c>
+      <c r="C2076" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86252, "EURUSDc": 1.17079, "AUDJPYc": 96.639, "EURNZDc": 1.95687, "USDCHFc": 0.80455}</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:48:36.266551</t>
+        </is>
+      </c>
+      <c r="C2077" t="n">
+        <v>31.37</v>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.766, "EURCADc": 1.61098, "AUDCHFc": 0.52662, "EURUSDc": 1.17076}</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:48:36.321901</t>
+        </is>
+      </c>
+      <c r="C2078" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.8637, "EURUSDc": 1.17076, "AUDJPYc": 96.624, "EURNZDc": 1.95706, "USDCHFc": 0.8039}</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:48:37.288614</t>
+        </is>
+      </c>
+      <c r="C2079" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.765, "EURCADc": 1.61098, "AUDCHFc": 0.52662, "EURUSDc": 1.17076}</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:48:37.334856</t>
+        </is>
+      </c>
+      <c r="C2080" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.8637, "EURUSDc": 1.17076, "AUDJPYc": 96.624, "EURNZDc": 1.95706, "USDCHFc": 0.8039}</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:48:38.302625</t>
+        </is>
+      </c>
+      <c r="C2081" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.765, "EURCADc": 1.61099, "AUDCHFc": 0.52662, "EURUSDc": 1.17077}</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:11.585388</t>
+        </is>
+      </c>
+      <c r="C2082" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="D2082" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.798, "EURCADc": 1.61119, "AUDCHFc": 0.52638, "EURUSDc": 1.1708}</t>
+        </is>
+      </c>
+      <c r="E2082" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:11.603361</t>
+        </is>
+      </c>
+      <c r="C2083" t="n">
+        <v>-5.41</v>
+      </c>
+      <c r="D2083" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86435, "EURUSDc": 1.17082, "AUDJPYc": 96.602, "EURNZDc": 1.95706, "USDCHFc": 0.80361}</t>
+        </is>
+      </c>
+      <c r="E2083" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:12.605796</t>
+        </is>
+      </c>
+      <c r="C2084" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="D2084" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.797, "EURCADc": 1.61117, "AUDCHFc": 0.52639, "EURUSDc": 1.17077}</t>
+        </is>
+      </c>
+      <c r="E2084" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:12.626495</t>
+        </is>
+      </c>
+      <c r="C2085" t="n">
+        <v>-5.34</v>
+      </c>
+      <c r="D2085" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86434, "EURUSDc": 1.17077, "AUDJPYc": 96.604, "EURNZDc": 1.95705, "USDCHFc": 0.80362}</t>
+        </is>
+      </c>
+      <c r="E2085" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:13.629343</t>
+        </is>
+      </c>
+      <c r="C2086" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="D2086" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.796, "EURCADc": 1.61117, "AUDCHFc": 0.52639, "EURUSDc": 1.17076}</t>
+        </is>
+      </c>
+      <c r="E2086" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:13.644640</t>
+        </is>
+      </c>
+      <c r="C2087" t="n">
+        <v>-5.27</v>
+      </c>
+      <c r="D2087" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86432, "EURUSDc": 1.17076, "AUDJPYc": 96.606, "EURNZDc": 1.95704, "USDCHFc": 0.80363}</t>
+        </is>
+      </c>
+      <c r="E2087" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:14.654201</t>
+        </is>
+      </c>
+      <c r="C2088" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="D2088" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59838, "GBPJPYc": 199.79, "EURCADc": 1.61112, "AUDCHFc": 0.52641, "EURUSDc": 1.17074}</t>
+        </is>
+      </c>
+      <c r="E2088" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:14.654201</t>
+        </is>
+      </c>
+      <c r="C2089" t="n">
+        <v>-5.23</v>
+      </c>
+      <c r="D2089" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86432, "EURUSDc": 1.17074, "AUDJPYc": 96.609, "EURNZDc": 1.95704, "USDCHFc": 0.80363}</t>
+        </is>
+      </c>
+      <c r="E2089" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:15.665520</t>
+        </is>
+      </c>
+      <c r="C2090" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="D2090" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59839, "GBPJPYc": 199.79, "EURCADc": 1.61112, "AUDCHFc": 0.52641, "EURUSDc": 1.17074}</t>
+        </is>
+      </c>
+      <c r="E2090" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>2025-08-13T14:55:15.681284</t>
+        </is>
+      </c>
+      <c r="C2091" t="n">
+        <v>-5.15</v>
+      </c>
+      <c r="D2091" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86428, "EURUSDc": 1.17074, "AUDJPYc": 96.609, "EURNZDc": 1.95701, "USDCHFc": 0.80365}</t>
+        </is>
+      </c>
+      <c r="E2091" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:16.895593</t>
+        </is>
+      </c>
+      <c r="C2092" t="n">
+        <v>35.21</v>
+      </c>
+      <c r="D2092" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59732, "GBPJPYc": 199.995, "EURCADc": 1.61226, "AUDCHFc": 0.52646, "EURUSDc": 1.17096}</t>
+        </is>
+      </c>
+      <c r="E2092" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:17.913589</t>
+        </is>
+      </c>
+      <c r="C2093" t="n">
+        <v>35.24</v>
+      </c>
+      <c r="D2093" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59728, "GBPJPYc": 200.103, "EURCADc": 1.61132, "AUDCHFc": 0.5268, "EURUSDc": 1.17025}</t>
+        </is>
+      </c>
+      <c r="E2093" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:18.874682</t>
+        </is>
+      </c>
+      <c r="C2094" t="n">
+        <v>-8.35</v>
+      </c>
+      <c r="D2094" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.8686, "EURUSDc": 1.17024, "AUDJPYc": 96.452, "EURNZDc": 1.95978, "USDCHFc": 0.8054}</t>
+        </is>
+      </c>
+      <c r="E2094" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:18.924399</t>
+        </is>
+      </c>
+      <c r="C2095" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="D2095" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59728, "GBPJPYc": 200.11, "EURCADc": 1.61132, "AUDCHFc": 0.52681, "EURUSDc": 1.17024}</t>
+        </is>
+      </c>
+      <c r="E2095" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:19.896993</t>
+        </is>
+      </c>
+      <c r="C2096" t="n">
+        <v>-8.119999999999999</v>
+      </c>
+      <c r="D2096" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86859, "EURUSDc": 1.17016, "AUDJPYc": 96.455, "EURNZDc": 1.9597, "USDCHFc": 0.80546}</t>
+        </is>
+      </c>
+      <c r="E2096" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:19.944532</t>
+        </is>
+      </c>
+      <c r="C2097" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="D2097" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59728, "GBPJPYc": 200.115, "EURCADc": 1.61127, "AUDCHFc": 0.52684, "EURUSDc": 1.17016}</t>
+        </is>
+      </c>
+      <c r="E2097" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:20.906842</t>
+        </is>
+      </c>
+      <c r="C2098" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="D2098" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86857, "EURUSDc": 1.17016, "AUDJPYc": 96.456, "EURNZDc": 1.95972, "USDCHFc": 0.80546}</t>
+        </is>
+      </c>
+      <c r="E2098" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:20.952567</t>
+        </is>
+      </c>
+      <c r="C2099" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="D2099" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59726, "GBPJPYc": 200.12, "EURCADc": 1.61125, "AUDCHFc": 0.52684, "EURUSDc": 1.17016}</t>
+        </is>
+      </c>
+      <c r="E2099" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:21.932916</t>
+        </is>
+      </c>
+      <c r="C2100" t="n">
+        <v>-8.130000000000001</v>
+      </c>
+      <c r="D2100" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86857, "EURUSDc": 1.17018, "AUDJPYc": 96.456, "EURNZDc": 1.95972, "USDCHFc": 0.80546}</t>
+        </is>
+      </c>
+      <c r="E2100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:21.964477</t>
+        </is>
+      </c>
+      <c r="C2101" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="D2101" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59726, "GBPJPYc": 200.118, "EURCADc": 1.61125, "AUDCHFc": 0.52684, "EURUSDc": 1.17018}</t>
+        </is>
+      </c>
+      <c r="E2101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:22.940747</t>
+        </is>
+      </c>
+      <c r="C2102" t="n">
+        <v>-8.08</v>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86857, "EURUSDc": 1.17015, "AUDJPYc": 96.458, "EURNZDc": 1.95973, "USDCHFc": 0.80547}</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:22.971379</t>
+        </is>
+      </c>
+      <c r="C2103" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D2103" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59726, "GBPJPYc": 200.123, "EURCADc": 1.61123, "AUDCHFc": 0.52684, "EURUSDc": 1.17015}</t>
+        </is>
+      </c>
+      <c r="E2103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:23.953503</t>
+        </is>
+      </c>
+      <c r="C2104" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="D2104" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86859, "EURUSDc": 1.17014, "AUDJPYc": 96.458, "EURNZDc": 1.95971, "USDCHFc": 0.80548}</t>
+        </is>
+      </c>
+      <c r="E2104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:23.984704</t>
+        </is>
+      </c>
+      <c r="C2105" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59725, "GBPJPYc": 200.124, "EURCADc": 1.61123, "AUDCHFc": 0.52684, "EURUSDc": 1.17014}</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:24.979733</t>
+        </is>
+      </c>
+      <c r="C2106" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86859, "EURUSDc": 1.17013, "AUDJPYc": 96.458, "EURNZDc": 1.95969, "USDCHFc": 0.80547}</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:25.006118</t>
+        </is>
+      </c>
+      <c r="C2107" t="n">
+        <v>35.66</v>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59725, "GBPJPYc": 200.124, "EURCADc": 1.61121, "AUDCHFc": 0.52684, "EURUSDc": 1.17013}</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2025-08-14T01:15:25.997798</t>
+        </is>
+      </c>
+      <c r="C2108" t="n">
+        <v>-8.050000000000001</v>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86862, "EURUSDc": 1.17013, "AUDJPYc": 96.459, "EURNZDc": 1.95969, "USDCHFc": 0.80547}</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/pnl_cache/pnl_log.xlsx
+++ b/src/pnl_cache/pnl_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2108"/>
+  <dimension ref="A1:E2150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44702,6 +44702,888 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:31.866795</t>
+        </is>
+      </c>
+      <c r="C2109" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.86864, "EURUSDc": 1.17014, "AUDJPYc": 96.459, "EURNZDc": 1.9597, "USDCHFc": 0.80547}</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:31.930107</t>
+        </is>
+      </c>
+      <c r="C2110" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59593, "GBPJPYc": 198.89, "EURCADc": 1.6089, "AUDCHFc": 0.52704, "EURUSDc": 1.1683}</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:32.892749</t>
+        </is>
+      </c>
+      <c r="C2111" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87049, "EURUSDc": 1.1683, "AUDJPYc": 95.735, "EURNZDc": 1.96093, "USDCHFc": 0.80618}</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:32.939805</t>
+        </is>
+      </c>
+      <c r="C2112" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59593, "GBPJPYc": 198.895, "EURCADc": 1.6089, "AUDCHFc": 0.52705, "EURUSDc": 1.16831}</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:33.908264</t>
+        </is>
+      </c>
+      <c r="C2113" t="n">
+        <v>-12.59</v>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87049, "EURUSDc": 1.1683, "AUDJPYc": 95.735, "EURNZDc": 1.96092, "USDCHFc": 0.80618}</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:33.954357</t>
+        </is>
+      </c>
+      <c r="C2114" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59593, "GBPJPYc": 198.897, "EURCADc": 1.60889, "AUDCHFc": 0.52705, "EURUSDc": 1.1683}</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:34.921695</t>
+        </is>
+      </c>
+      <c r="C2115" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87049, "EURUSDc": 1.16831, "AUDJPYc": 95.737, "EURNZDc": 1.96092, "USDCHFc": 0.80617}</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:34.967228</t>
+        </is>
+      </c>
+      <c r="C2116" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59593, "GBPJPYc": 198.897, "EURCADc": 1.60889, "AUDCHFc": 0.52705, "EURUSDc": 1.16831}</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:35.931402</t>
+        </is>
+      </c>
+      <c r="C2117" t="n">
+        <v>-12.62</v>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87049, "EURUSDc": 1.16833, "AUDJPYc": 95.737, "EURNZDc": 1.96092, "USDCHFc": 0.80617}</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:35.977684</t>
+        </is>
+      </c>
+      <c r="C2118" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59593, "GBPJPYc": 198.896, "EURCADc": 1.60889, "AUDCHFc": 0.52705, "EURUSDc": 1.16833}</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:36.952791</t>
+        </is>
+      </c>
+      <c r="C2119" t="n">
+        <v>-12.61</v>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87049, "EURUSDc": 1.16832, "AUDJPYc": 95.738, "EURNZDc": 1.96093, "USDCHFc": 0.80617}</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:36.999143</t>
+        </is>
+      </c>
+      <c r="C2120" t="n">
+        <v>32.44</v>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59593, "GBPJPYc": 198.894, "EURCADc": 1.6089, "AUDCHFc": 0.52705, "EURUSDc": 1.16832}</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:34:37.968869</t>
+        </is>
+      </c>
+      <c r="C2121" t="n">
+        <v>-12.59</v>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87048, "EURUSDc": 1.16831, "AUDJPYc": 95.738, "EURNZDc": 1.96093, "USDCHFc": 0.80617}</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:39.878498</t>
+        </is>
+      </c>
+      <c r="C2122" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59571, "GBPJPYc": 198.928, "EURCADc": 1.6089, "AUDCHFc": 0.52704, "EURUSDc": 1.16817}</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:39.886025</t>
+        </is>
+      </c>
+      <c r="C2123" t="n">
+        <v>-12.31</v>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87032, "EURUSDc": 1.16817, "AUDJPYc": 95.738, "EURNZDc": 1.96146, "USDCHFc": 0.80644}</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:40.895819</t>
+        </is>
+      </c>
+      <c r="C2124" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59571, "GBPJPYc": 198.928, "EURCADc": 1.60892, "AUDCHFc": 0.52704, "EURUSDc": 1.16817}</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:40.910431</t>
+        </is>
+      </c>
+      <c r="C2125" t="n">
+        <v>-12.31</v>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87032, "EURUSDc": 1.16817, "AUDJPYc": 95.738, "EURNZDc": 1.96146, "USDCHFc": 0.80644}</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:41.918126</t>
+        </is>
+      </c>
+      <c r="C2126" t="n">
+        <v>-12.36</v>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87037, "EURUSDc": 1.16817, "AUDJPYc": 95.737, "EURNZDc": 1.96146, "USDCHFc": 0.80644}</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:41.918126</t>
+        </is>
+      </c>
+      <c r="C2127" t="n">
+        <v>33.04</v>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59571, "GBPJPYc": 198.929, "EURCADc": 1.6089, "AUDCHFc": 0.52704, "EURUSDc": 1.16817}</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:42.931884</t>
+        </is>
+      </c>
+      <c r="C2128" t="n">
+        <v>-12.14</v>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87034, "EURUSDc": 1.16806, "AUDJPYc": 95.738, "EURNZDc": 1.96143, "USDCHFc": 0.80649}</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:42.948067</t>
+        </is>
+      </c>
+      <c r="C2129" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59566, "GBPJPYc": 198.924, "EURCADc": 1.60886, "AUDCHFc": 0.52703, "EURUSDc": 1.16806}</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:43.947172</t>
+        </is>
+      </c>
+      <c r="C2130" t="n">
+        <v>-12.12</v>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.8703, "EURUSDc": 1.16806, "AUDJPYc": 95.735, "EURNZDc": 1.96141, "USDCHFc": 0.80649}</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:41:43.963233</t>
+        </is>
+      </c>
+      <c r="C2131" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59566, "GBPJPYc": 198.924, "EURCADc": 1.60884, "AUDCHFc": 0.52703, "EURUSDc": 1.16806}</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:45:40.190949</t>
+        </is>
+      </c>
+      <c r="C2132" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59567, "GBPJPYc": 198.925, "EURCADc": 1.60887, "AUDCHFc": 0.52702, "EURUSDc": 1.1681}</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:45:40.868269</t>
+        </is>
+      </c>
+      <c r="C2133" t="n">
+        <v>-11.93</v>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87032, "EURUSDc": 1.16767, "AUDJPYc": 95.699, "EURNZDc": 1.96174, "USDCHFc": 0.80669}</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:45:41.207174</t>
+        </is>
+      </c>
+      <c r="C2134" t="n">
+        <v>33.58</v>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59537, "GBPJPYc": 198.9, "EURCADc": 1.60876, "AUDCHFc": 0.52688, "EURUSDc": 1.16767}</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:45:41.888264</t>
+        </is>
+      </c>
+      <c r="C2135" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87032, "EURUSDc": 1.16767, "AUDJPYc": 95.7, "EURNZDc": 1.96174, "USDCHFc": 0.80669}</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2025-08-14T15:45:42.215379</t>
+        </is>
+      </c>
+      <c r="C2136" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59537, "GBPJPYc": 198.901, "EURCADc": 1.60876, "AUDCHFc": 0.52688, "EURUSDc": 1.16766}</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:38.194996</t>
+        </is>
+      </c>
+      <c r="C2137" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59537, "GBPJPYc": 198.898, "EURCADc": 1.60876, "AUDCHFc": 0.52688, "EURUSDc": 1.16768}</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:38.226118</t>
+        </is>
+      </c>
+      <c r="C2138" t="n">
+        <v>-15.09</v>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87171, "EURUSDc": 1.16859, "AUDJPYc": 95.689, "EURNZDc": 1.96253, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:39.210429</t>
+        </is>
+      </c>
+      <c r="C2139" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59559, "GBPJPYc": 199.079, "EURCADc": 1.60929, "AUDCHFc": 0.52661, "EURUSDc": 1.16859}</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:39.240570</t>
+        </is>
+      </c>
+      <c r="C2140" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87171, "EURUSDc": 1.16859, "AUDJPYc": 95.687, "EURNZDc": 1.96253, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:40.219630</t>
+        </is>
+      </c>
+      <c r="C2141" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59559, "GBPJPYc": 199.079, "EURCADc": 1.60929, "AUDCHFc": 0.52661, "EURUSDc": 1.16859}</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:40.250676</t>
+        </is>
+      </c>
+      <c r="C2142" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87171, "EURUSDc": 1.16859, "AUDJPYc": 95.687, "EURNZDc": 1.96253, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:41.230704</t>
+        </is>
+      </c>
+      <c r="C2143" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59559, "GBPJPYc": 199.08, "EURCADc": 1.60929, "AUDCHFc": 0.52661, "EURUSDc": 1.16859}</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:41.262222</t>
+        </is>
+      </c>
+      <c r="C2144" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87171, "EURUSDc": 1.16859, "AUDJPYc": 95.687, "EURNZDc": 1.96253, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:42.244323</t>
+        </is>
+      </c>
+      <c r="C2145" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59559, "GBPJPYc": 199.081, "EURCADc": 1.60929, "AUDCHFc": 0.52661, "EURUSDc": 1.16859}</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:42.276297</t>
+        </is>
+      </c>
+      <c r="C2146" t="n">
+        <v>-15.11</v>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87172, "EURUSDc": 1.16859, "AUDJPYc": 95.687, "EURNZDc": 1.96254, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>263006287</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:43.263916</t>
+        </is>
+      </c>
+      <c r="C2147" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>{"NZDUSDc": 0.59559, "GBPJPYc": 199.08, "EURCADc": 1.6093, "AUDCHFc": 0.52661, "EURUSDc": 1.16861}</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:43.295388</t>
+        </is>
+      </c>
+      <c r="C2148" t="n">
+        <v>-15.14</v>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87172, "EURUSDc": 1.16861, "AUDJPYc": 95.687, "EURNZDc": 1.96255, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:44.318314</t>
+        </is>
+      </c>
+      <c r="C2149" t="n">
+        <v>-15.13</v>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87172, "EURUSDc": 1.1686, "AUDJPYc": 95.687, "EURNZDc": 1.96255, "USDCHFc": 0.80614}</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>183459647</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2025-08-14T16:33:45.332881</t>
+        </is>
+      </c>
+      <c r="C2150" t="n">
+        <v>-15.14</v>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>{"GBPCADc": 1.87172, "EURUSDc": 1.1686, "AUDJPYc": 95.687, "EURNZDc": 1.96255, "USDCHFc": 0.80613}</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
